--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27430.33174820961</v>
+        <v>5458636.017893706</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27430.33174820961</v>
+        <v>5458636.017893706</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52254.46244835035</v>
+        <v>4320507.443701403</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52254.46244835035</v>
+        <v>4320507.443701403</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609878954.685562</v>
+        <v>62815342.23831642</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12884.42456996694</v>
+        <v>1395715.493333249</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25299.06169125573</v>
+        <v>2718084.324949869</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37713.38204486774</v>
+        <v>4040390.119798814</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52906.56957392373</v>
+        <v>5325081.033572711</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67889.74013328271</v>
+        <v>6567978.570376911</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82872.91069264169</v>
+        <v>7810876.107181107</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98499.51559543498</v>
+        <v>9074260.593480248</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114024.7789454205</v>
+        <v>10317209.32716223</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130883.3361965425</v>
+        <v>11420205.09041725</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146406.7343336437</v>
+        <v>12663051.43034365</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>161930.3897414876</v>
+        <v>13905948.96714784</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>175032.6728633206</v>
+        <v>15161629.24569348</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>188344.9729548506</v>
+        <v>16459102.90120882</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>204218.1109672886</v>
+        <v>17470790.95556493</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>221923.6827797547</v>
+        <v>18094145.79029575</v>
       </c>
     </row>
   </sheetData>
